--- a/doc/EPC数据库表设计.xlsx
+++ b/doc/EPC数据库表设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Repository\HELI_EPC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\HELI_EPC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9FE90-6F3C-42DA-A71B-F4BE89AB0D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7962258-9E49-46E4-80FA-3629F2142306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
   </bookViews>
@@ -29,29 +29,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态（1.使用0.停用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>svg_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG存储链接地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp3_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP3存储链接地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表（PartList）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,154 +206,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态（1.使用0.停用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布结构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布结构编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型结构（epc_product）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布结构（epc_publish）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布结构id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表（epc_part_list）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>create_by</t>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>svg_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVG存储链接地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp3_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP3存储链接地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_by</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_by</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部件列表（PartList）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车型结构（ProductStructure）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_list_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_publish_link_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_list_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_list_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_list_svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_list_mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表svg地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表mp3地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型与发布结构关联表(epc_product_publish_link)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布结构与部件列表关联表（epc_publishi_part_list_link）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publishi_part_list_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件表(epc_part)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,10 +374,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -282,23 +410,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,6 +428,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,163 +758,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE93E64-EEE2-40AC-93A2-BA008B03965C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="B50" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A62:E62"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A54:E54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -792,140 +1269,140 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/EPC数据库表设计.xlsx
+++ b/doc/EPC数据库表设计.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Repository\HELI_EPC\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\HELI_EPC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BE0EF0-EA96-4505-954F-D414800D1EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512D59A-9651-4EDA-BB67-D2B832EF3CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
   </bookViews>
   <sheets>
     <sheet name="epc_product" sheetId="1" r:id="rId1"/>
     <sheet name="epc_part" sheetId="6" r:id="rId2"/>
-    <sheet name="epc_publish_part_list_link" sheetId="5" r:id="rId3"/>
-    <sheet name="epc_publish" sheetId="3" r:id="rId4"/>
-    <sheet name="epc_part_list" sheetId="2" r:id="rId5"/>
-    <sheet name="epc_product_publish_link" sheetId="4" r:id="rId6"/>
+    <sheet name="epc_part_List_part_link" sheetId="7" r:id="rId3"/>
+    <sheet name="epc_publish_part_list_link" sheetId="5" r:id="rId4"/>
+    <sheet name="epc_publish" sheetId="3" r:id="rId5"/>
+    <sheet name="epc_part_list" sheetId="2" r:id="rId6"/>
+    <sheet name="epc_product_publish_link" sheetId="4" r:id="rId7"/>
+    <sheet name="epc_product_vin" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">epc_product!$B$1:$B$12</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +265,126 @@
   </si>
   <si>
     <t>发布结构与部件列表关联表（epc_publish_part_list_link）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">superseded </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取代件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alternates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">supplementaries </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件列表与部件关联表（epc_part_List_part_link）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_List_part_link_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品实例表（epc_product_vin）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品实例id，从产品vin码获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "publishId": 1001,
+    "partList": [
+      {
+        "partListId": "10001",
+        "partIds": [
+          "100001",
+          "100002"
+        ]
+      },
+      {
+        "partListId": "10002",
+        "partIds": [
+          "100003"
+        ],
+        "partList": [
+          {
+            "partListId": "10003",
+            "partIds": [
+              "100004",
+              "100005"
+            ]
+          }
+        ]
+      }
+    ]
+  },
+  {
+    "publishId": 1002,
+    "partList": [
+      {
+        "partListId": "10002",
+        "partIds": [
+          "100005",
+          "100006"
+        ]
+      }
+    ]
+  }
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +418,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -331,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +479,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,32 +801,67 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{A93B02A4-597E-4892-8ED4-B8C05D62B9EA}">
+  <we:reference id="wa104381080" version="1.1.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104381080" version="1.1.0.0" store="WA104381080" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{729A98A8-4F86-46DB-B982-67743E2FCA32}">
+  <we:reference id="wa104380263" version="1.1.3.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380263" version="1.1.3.0" store="WA104380263" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE93E64-EEE2-40AC-93A2-BA008B03965C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="36.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -704,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -715,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -731,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -739,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -747,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -755,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -763,7 +937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -771,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -779,7 +953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -799,28 +973,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08E47C-3761-4C8A-AC5E-6135FC2C2B60}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -837,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -846,7 +1020,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -857,14 +1031,73 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -876,30 +1109,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408418EF-482C-4D2B-982E-67EDC4F62B21}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCE6240-28E3-4C26-81B4-C9807E21BCC2}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -916,38 +1148,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -955,33 +1253,35 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF48A2F-FFEB-49CB-8F55-D47DD8D388C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408418EF-482C-4D2B-982E-67EDC4F62B21}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -998,84 +1298,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1087,31 +1385,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA7AE38-FC35-4C21-B388-9AC8C4C73A73}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF48A2F-FFEB-49CB-8F55-D47DD8D388C2}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1128,12 +1424,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1141,93 +1437,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1239,29 +1513,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E926E5-6263-4102-B892-402153126D3A}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA7AE38-FC35-4C21-B388-9AC8C4C73A73}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1278,12 +1554,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1291,71 +1567,93 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1364,4 +1662,259 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E926E5-6263-4102-B892-402153126D3A}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045515DB-AC24-4998-9404-2F975F7BB062}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/EPC数据库表设计.xlsx
+++ b/doc/EPC数据库表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\HELI_EPC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512D59A-9651-4EDA-BB67-D2B832EF3CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396B163-C346-4FD1-9CE2-414BDFB1B073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
   </bookViews>
   <sheets>
     <sheet name="epc_product" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">superseded </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取代件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,6 +381,18 @@
     ]
   }
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取代件（10111|10112）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,11 +491,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,13 +864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -973,26 +984,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08E47C-3761-4C8A-AC5E-6135FC2C2B60}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1047,57 +1058,76 @@
         <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1105,6 +1135,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1113,7 +1144,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1123,13 +1154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1150,7 +1181,7 @@
     </row>
     <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1175,7 +1206,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1183,10 +1214,10 @@
     </row>
     <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1194,10 +1225,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1273,13 +1304,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1388,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF48A2F-FFEB-49CB-8F55-D47DD8D388C2}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1399,13 +1430,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1514,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA7AE38-FC35-4C21-B388-9AC8C4C73A73}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
@@ -1529,13 +1560,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1611,23 +1642,20 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1635,10 +1663,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1646,14 +1674,25 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1679,13 +1718,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1808,13 +1847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1835,10 +1874,10 @@
     </row>
     <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1848,13 +1887,13 @@
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1904,9 +1943,9 @@
       <c r="E8" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/EPC数据库表设计.xlsx
+++ b/doc/EPC数据库表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\HELI_EPC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396B163-C346-4FD1-9CE2-414BDFB1B073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965FF56B-F533-4F92-88D2-ED20FB3CA419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{41BA46A6-5B63-4805-B41E-323895AD261D}"/>
   </bookViews>
   <sheets>
     <sheet name="epc_product" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="epc_product_vin" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">epc_product!$B$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">epc_product!$B$1:$B$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internationalized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE93E64-EEE2-40AC-93A2-BA008B03965C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -864,13 +879,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -896,6 +911,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
@@ -909,66 +927,77 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -984,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08E47C-3761-4C8A-AC5E-6135FC2C2B60}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -997,13 +1026,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1042,92 +1071,103 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1154,13 +1194,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1292,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408418EF-482C-4D2B-982E-67EDC4F62B21}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1304,13 +1344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1417,26 +1457,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF48A2F-FFEB-49CB-8F55-D47DD8D388C2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1479,23 +1519,23 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1503,10 +1543,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1514,10 +1554,10 @@
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1525,14 +1565,25 @@
     </row>
     <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1545,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA7AE38-FC35-4C21-B388-9AC8C4C73A73}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
@@ -1560,13 +1611,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1609,23 +1660,23 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1633,40 +1684,40 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1674,10 +1725,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1685,14 +1736,25 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1718,13 +1780,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1836,7 +1898,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1847,13 +1909,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1943,9 +2005,9 @@
       <c r="E8" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
